--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail9 Features.xlsx
@@ -3268,7 +3268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3279,29 +3279,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3322,115 +3320,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3447,72 +3435,66 @@
         <v>2.741467799436834e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.404318543457802</v>
+        <v>1.844116107123422e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.512053742186437</v>
+        <v>2.96334785233979e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.844116107123422e-06</v>
+        <v>0.1072228873747088</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.96334785233979e-06</v>
+        <v>0.3129382004353352</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1072228873747088</v>
+        <v>0.1092891098434074</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3129382004353352</v>
+        <v>1.460460670725607</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1092891098434074</v>
+        <v>1.370159843949358</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.370651244246508</v>
+        <v>3.843303377762719</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.370159843949358</v>
+        <v>3.542565070640872e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.843303377762719</v>
+        <v>7456453.368017214</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.542565070640872e-14</v>
+        <v>1.317561521280528e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7456453.368017214</v>
+        <v>1.969620013610379</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.317561521280528e-05</v>
+        <v>0.0001648866689798186</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1.969620013610379</v>
+        <v>8.519452842220746</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001648866689798186</v>
+        <v>1.587963229220111</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.519452842220746</v>
+        <v>0.01196765197311405</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.587963229220111</v>
+        <v>2.983148866760709</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01196765197311405</v>
+        <v>0.9355101149268209</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.983148866760709</v>
+        <v>1.919964511766178</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9355101149268209</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.919964511766178</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1464721321002835</v>
       </c>
     </row>
@@ -3527,72 +3509,66 @@
         <v>2.19982909706409e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.631906112171267</v>
+        <v>1.475258729839854e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5.667513208198262</v>
+        <v>2.989388966888022e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.475258729839854e-06</v>
+        <v>0.1041936753391108</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.989388966888022e-06</v>
+        <v>0.3349415046947046</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1041936753391108</v>
+        <v>0.122887823101682</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3349415046947046</v>
+        <v>1.467372463228634</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.122887823101682</v>
+        <v>1.366631618395969</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.376473778373078</v>
+        <v>3.841092504614831</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.366631618395969</v>
+        <v>3.546644335076848e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.841092504614831</v>
+        <v>7565498.628109529</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.546644335076848e-14</v>
+        <v>1.310339113723288e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>7565498.628109529</v>
+        <v>2.029984642766428</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.310339113723288e-05</v>
+        <v>0.0001642436415566284</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2.029984642766428</v>
+        <v>9.150625767414967</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001642436415566284</v>
+        <v>1.390047910714553</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.150625767414967</v>
+        <v>0.01375276918777788</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.390047910714553</v>
+        <v>2.903017038622594</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01375276918777788</v>
+        <v>0.9372087061966697</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.903017038622594</v>
+        <v>1.889936983034454</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9372087061966697</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.889936983034454</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.145859898481802</v>
       </c>
     </row>
@@ -3607,72 +3583,66 @@
         <v>1.82809909994715e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.6403802904280806</v>
+        <v>1.152395743679495e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.944425000381285</v>
+        <v>3.009450607847411e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.152395743679495e-06</v>
+        <v>0.09487210663179696</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.009450607847411e-06</v>
+        <v>0.3423188750576049</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.09487210663179696</v>
+        <v>0.1259961460773388</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3423188750576049</v>
+        <v>1.465500894542486</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1259961460773388</v>
+        <v>1.356069715030929</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.375817455691178</v>
+        <v>3.833891591585398</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.356069715030929</v>
+        <v>3.559979642487624e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.833891591585398</v>
+        <v>7569432.830692627</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.559979642487624e-14</v>
+        <v>1.311159458285715e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>7569432.830692627</v>
+        <v>2.039737092165793</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.311159458285715e-05</v>
+        <v>0.00017458610539798</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2.039737092165793</v>
+        <v>11.81112210600565</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.00017458610539798</v>
+        <v>1.099979509642437</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.81112210600565</v>
+        <v>0.02435521657017667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.099979509642437</v>
+        <v>2.66643615015232</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02435521657017667</v>
+        <v>0.9378993975686485</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.66643615015232</v>
+        <v>1.893253510014756</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9378993975686485</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.893253510014756</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1483098944958987</v>
       </c>
     </row>
@@ -3687,72 +3657,66 @@
         <v>1.623274686227435e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.08722368765186048</v>
+        <v>8.553640452155176e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.4344808444916071</v>
+        <v>3.024224399245275e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.553640452155176e-07</v>
+        <v>0.07617264768659146</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.024224399245275e-06</v>
+        <v>0.3135546999901818</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.07617264768659146</v>
+        <v>0.1039342425996662</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3135546999901818</v>
+        <v>1.457681002810685</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1039342425996662</v>
+        <v>1.34291418488354</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.371391286350175</v>
+        <v>3.835871502570478</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.34291418488354</v>
+        <v>3.556305575853526e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.835871502570478</v>
+        <v>7572259.332701462</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.556305575853526e-14</v>
+        <v>1.305860747211986e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7572259.332701462</v>
+        <v>2.039154015922967</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.305860747211986e-05</v>
+        <v>0.0001886566183247422</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2.039154015922967</v>
+        <v>13.24596671796039</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001886566183247422</v>
+        <v>1.029999885034999</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.24596671796039</v>
+        <v>0.03310086663179935</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.029999885034999</v>
+        <v>2.491259495623045</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03310086663179935</v>
+        <v>0.937890614367095</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.491259495623045</v>
+        <v>1.91209144122631</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.937890614367095</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.91209144122631</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1486878919428639</v>
       </c>
     </row>
@@ -3767,72 +3731,66 @@
         <v>1.548200648068831e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.28822909346559</v>
+        <v>6.228462260689925e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9669101374489144</v>
+        <v>3.034549405035954e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.228462260689925e-07</v>
+        <v>0.05526145365031803</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.034549405035954e-06</v>
+        <v>0.2706866137336684</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05526145365031803</v>
+        <v>0.07623019647632848</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2706866137336684</v>
+        <v>1.437881827144526</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.07623019647632848</v>
+        <v>1.327756816599656</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.351555933244546</v>
+        <v>3.918640863587038</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.327756816599656</v>
+        <v>3.407659913669644e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.918640863587038</v>
+        <v>7954245.411017505</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.407659913669644e-14</v>
+        <v>1.236787969532725e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>7954245.411017505</v>
+        <v>2.156027110910825</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.236787969532725e-05</v>
+        <v>0.0001803500843540297</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2.156027110910825</v>
+        <v>11.43433470685984</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001803500843540297</v>
+        <v>1.197679358342367</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.43433470685984</v>
+        <v>0.02357969326628</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.197679358342367</v>
+        <v>2.776345542347531</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02357969326628</v>
+        <v>0.9358807121634545</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.776345542347531</v>
+        <v>1.914815581191127</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9358807121634545</v>
+        <v>7</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.914815581191127</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1438109361029481</v>
       </c>
     </row>
@@ -3847,72 +3805,66 @@
         <v>1.535930267461434e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2562782124619035</v>
+        <v>5.406538638424003e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.032271548351108</v>
+        <v>3.041766208891852e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.406538638424003e-07</v>
+        <v>0.03961043308795142</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.041766208891852e-06</v>
+        <v>0.2449445839780387</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03961043308795142</v>
+        <v>0.06153035730746697</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2449445839780387</v>
+        <v>1.44739600643212</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06153035730746697</v>
+        <v>1.308178727431419</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.361435855809991</v>
+        <v>4.111128434048275</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.308178727431419</v>
+        <v>3.096029443456207e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.111128434048275</v>
+        <v>8693288.296100177</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.096029443456207e-14</v>
+        <v>1.129139828909764e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8693288.296100177</v>
+        <v>2.339770424296642</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.129139828909764e-05</v>
+        <v>0.0001764743053923128</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2.339770424296642</v>
+        <v>8.937852756809102</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001764743053923128</v>
+        <v>1.575596850062077</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.937852756809102</v>
+        <v>0.01409768728159377</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.575596850062077</v>
+        <v>2.921875219916385</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01409768728159377</v>
+        <v>0.9361945380934795</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.921875219916385</v>
+        <v>1.904359538997024</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9361945380934795</v>
+        <v>7</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.904359538997024</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1409740168902872</v>
       </c>
     </row>
@@ -4289,7 +4241,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.454624236809883</v>
+        <v>1.480032638442434</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.985294592683696</v>
@@ -4378,7 +4330,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.469467581557191</v>
+        <v>1.494424284337104</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.985031050620898</v>
@@ -4467,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.478877053386219</v>
+        <v>1.50106807482903</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.994492624626687</v>
@@ -4556,7 +4508,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.581050788788331</v>
+        <v>1.586990467292879</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.80771387919231</v>
@@ -4645,7 +4597,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.634030102499727</v>
+        <v>1.626645997126438</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.63899343723926</v>
@@ -4734,7 +4686,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.602488894115512</v>
+        <v>1.60137169528482</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.488486427009975</v>
@@ -4823,7 +4775,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.604391790167323</v>
+        <v>1.606281455443799</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.587906958011185</v>
@@ -4912,7 +4864,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.604704548199727</v>
+        <v>1.607347602775711</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.327073723135511</v>
@@ -5001,7 +4953,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.643234853028642</v>
+        <v>1.640055168871083</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.366051693757819</v>
@@ -5090,7 +5042,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.655822170806499</v>
+        <v>1.644905656681192</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.401421662505273</v>
@@ -5179,7 +5131,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.608338715391764</v>
+        <v>1.60584990394979</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.456132122387127</v>
@@ -5268,7 +5220,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.555023925029051</v>
+        <v>1.571854465696875</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.968957607510239</v>
@@ -5357,7 +5309,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.460281956841383</v>
+        <v>1.482821657563408</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.030299491335682</v>
@@ -5446,7 +5398,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.431665490493484</v>
+        <v>1.453793637140978</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.039544328799731</v>
@@ -5535,7 +5487,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.402120550918845</v>
+        <v>1.41941555306415</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.046583327995261</v>
@@ -5624,7 +5576,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40060301520761</v>
+        <v>1.418978956865234</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.058923729013466</v>
@@ -5713,7 +5665,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.402377973320964</v>
+        <v>1.419496384611543</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.047138340592165</v>
@@ -5802,7 +5754,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.404911235193019</v>
+        <v>1.424551549551274</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.047141686737988</v>
@@ -5891,7 +5843,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.40558152929974</v>
+        <v>1.428538239603615</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.068968658227778</v>
@@ -5980,7 +5932,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.421541091735591</v>
+        <v>1.445536285910801</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.085785473534426</v>
@@ -6069,7 +6021,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.423541773233155</v>
+        <v>1.446445673519782</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.038105311564564</v>
@@ -6158,7 +6110,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.420923743576068</v>
+        <v>1.442133189993618</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.028549629027272</v>
@@ -6247,7 +6199,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.414291397295242</v>
+        <v>1.434196525237983</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.015976329639261</v>
@@ -6336,7 +6288,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.412337857227813</v>
+        <v>1.43211090891811</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.03338612515981</v>
@@ -6425,7 +6377,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.437520107365964</v>
+        <v>1.456875250724632</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.044115218701378</v>
@@ -6514,7 +6466,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.448029243424784</v>
+        <v>1.463372905897336</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.032406828603341</v>
@@ -6603,7 +6555,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.472585492818568</v>
+        <v>1.475474345932033</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.868228080478773</v>
@@ -6692,7 +6644,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585342422951888</v>
+        <v>1.572626117382659</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.26293690994484</v>
@@ -6781,7 +6733,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.634164720222312</v>
+        <v>1.616782975867554</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.188206115366757</v>
@@ -6870,7 +6822,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.745022638419961</v>
+        <v>1.716698596207438</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.246929607650278</v>
@@ -6959,7 +6911,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.755263112673375</v>
+        <v>1.722468965358278</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.300333996649599</v>
@@ -7048,7 +7000,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.765265222777973</v>
+        <v>1.728839013513044</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.396192750833617</v>
@@ -7137,7 +7089,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.765048055280768</v>
+        <v>1.727104117781895</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.351873068865839</v>
@@ -7226,7 +7178,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.764980599404686</v>
+        <v>1.728177934381024</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.293463458748816</v>
@@ -7315,7 +7267,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.751725702426426</v>
+        <v>1.717629133713473</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.339065687836672</v>
@@ -7404,7 +7356,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.7274409828907</v>
+        <v>1.704491499420684</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.350787381665786</v>
@@ -7493,7 +7445,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.715001120605262</v>
+        <v>1.69946851162834</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.356672941591008</v>
@@ -7582,7 +7534,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.703985511834945</v>
+        <v>1.687520331408141</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.408104693554047</v>
@@ -7671,7 +7623,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.699132678939005</v>
+        <v>1.684218306647309</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.348091039144246</v>
@@ -7760,7 +7712,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.68523021817845</v>
+        <v>1.672593779764494</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.300558471529086</v>
@@ -7849,7 +7801,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.731366256765825</v>
+        <v>1.713897734325885</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.154232077795078</v>
@@ -7938,7 +7890,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.763982020773232</v>
+        <v>1.739386089824015</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.787115390178938</v>
@@ -8027,7 +7979,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.761484816138003</v>
+        <v>1.742079878337088</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.81967184330731</v>
@@ -8116,7 +8068,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.760559138658883</v>
+        <v>1.7427001988194</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.028476174242579</v>
@@ -8205,7 +8157,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.754294232146187</v>
+        <v>1.736339767228501</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.943083857242292</v>
@@ -8294,7 +8246,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.745596794661272</v>
+        <v>1.728233520520814</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.005159979840052</v>
@@ -8383,7 +8335,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.732735917166634</v>
+        <v>1.717785929952416</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.761382285610555</v>
@@ -8472,7 +8424,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.726348331902029</v>
+        <v>1.716091562112906</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.038462727393709</v>
@@ -8561,7 +8513,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.709601364784503</v>
+        <v>1.698083350634997</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.755524352837327</v>
@@ -8650,7 +8602,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.720332539831609</v>
+        <v>1.707010108281843</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.646128453597397</v>
@@ -8739,7 +8691,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.739145438732283</v>
+        <v>1.722416890431335</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.416871279893392</v>
@@ -9025,7 +8977,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.695020868028176</v>
+        <v>1.686238887741941</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.882190364794609</v>
@@ -9114,7 +9066,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.70161052190293</v>
+        <v>1.688846975983045</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.812082674580672</v>
@@ -9203,7 +9155,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.695360662295903</v>
+        <v>1.674857898279572</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.909355763709775</v>
@@ -9292,7 +9244,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.710612363471573</v>
+        <v>1.677118976089812</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.62472264836252</v>
@@ -9381,7 +9333,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.709743292912273</v>
+        <v>1.666695114298379</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.299593133661239</v>
@@ -9470,7 +9422,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.686758539834708</v>
+        <v>1.636746755354451</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.293399857406293</v>
@@ -9559,7 +9511,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669915590730528</v>
+        <v>1.617049005393743</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.28746780734279</v>
@@ -9648,7 +9600,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.678560169507133</v>
+        <v>1.625929394053587</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.390115625862744</v>
@@ -9737,7 +9689,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.688919235093227</v>
+        <v>1.629093421835376</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.501889180039565</v>
@@ -9826,7 +9778,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.700910112084482</v>
+        <v>1.638328362116435</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.165399589362971</v>
@@ -9915,7 +9867,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.696698669673507</v>
+        <v>1.642626324222049</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.222812618351515</v>
@@ -10004,7 +9956,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.712782572656572</v>
+        <v>1.664414268968499</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.233423944916574</v>
@@ -10093,7 +10045,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.680111901865377</v>
+        <v>1.638794765531215</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.761788412817002</v>
@@ -10182,7 +10134,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.627705348946737</v>
+        <v>1.5906527390242</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.48518082474826</v>
@@ -10271,7 +10223,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.608019745258612</v>
+        <v>1.578872853652623</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.536964880821968</v>
@@ -10360,7 +10312,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.601850798434596</v>
+        <v>1.570012218167069</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.37733135137401</v>
@@ -10449,7 +10401,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.579579961877297</v>
+        <v>1.553584420739557</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.450419245199665</v>
@@ -10538,7 +10490,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.596722367153667</v>
+        <v>1.581517926389085</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.526532867323819</v>
@@ -10627,7 +10579,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.600079946110924</v>
+        <v>1.589475179636987</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.372960942178562</v>
@@ -10716,7 +10668,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.61467524628341</v>
+        <v>1.603189149493441</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.410145405102964</v>
@@ -10805,7 +10757,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.606346881911591</v>
+        <v>1.592462189843072</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.409953704653422</v>
@@ -10894,7 +10846,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.606106291174056</v>
+        <v>1.591897393884959</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.407720961660833</v>
@@ -10983,7 +10935,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.613257137503187</v>
+        <v>1.5995458357833</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.379289221409468</v>
@@ -11072,7 +11024,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.618943501455207</v>
+        <v>1.605215703365111</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.387697976736202</v>
@@ -11161,7 +11113,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.625551363782792</v>
+        <v>1.603953942309694</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.404353304332331</v>
@@ -11250,7 +11202,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.614086141432391</v>
+        <v>1.597756565563982</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.452433182271492</v>
@@ -11339,7 +11291,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.596096358466924</v>
+        <v>1.570795865701387</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.440609739257129</v>
@@ -11428,7 +11380,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.609286913466581</v>
+        <v>1.581059456529423</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.212253364829908</v>
@@ -11517,7 +11469,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.658275137071751</v>
+        <v>1.622291041596817</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.396859075006195</v>
@@ -11606,7 +11558,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.681598516217556</v>
+        <v>1.639262663609029</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.680435585846646</v>
@@ -11695,7 +11647,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.691289595119983</v>
+        <v>1.646424379137115</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.718342681111368</v>
@@ -11784,7 +11736,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.72770041455743</v>
+        <v>1.668169515875084</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.349649172044682</v>
@@ -11873,7 +11825,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.720741659896162</v>
+        <v>1.658342627172425</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.322712599078285</v>
@@ -11962,7 +11914,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.713428822280687</v>
+        <v>1.654876637622476</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.399055387565459</v>
@@ -12051,7 +12003,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.694350704133295</v>
+        <v>1.634899432290813</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.404335967920984</v>
@@ -12140,7 +12092,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.64691527325564</v>
+        <v>1.601035629773599</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.820976183566877</v>
@@ -12229,7 +12181,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.63448505004856</v>
+        <v>1.597029679566089</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.793192303804009</v>
@@ -12318,7 +12270,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.575399446728968</v>
+        <v>1.548898874745126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.377778747959746</v>
@@ -12407,7 +12359,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.567074352336377</v>
+        <v>1.543990828798951</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.446764691672264</v>
@@ -12496,7 +12448,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.571193887305596</v>
+        <v>1.548993932387762</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.386485611079785</v>
@@ -12585,7 +12537,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.588795919688714</v>
+        <v>1.55875107368249</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.419141243062869</v>
@@ -12674,7 +12626,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.606123253043493</v>
+        <v>1.579793052007326</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.42068796965092</v>
@@ -12763,7 +12715,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.610202755994601</v>
+        <v>1.588569517687159</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.404996766549519</v>
@@ -12852,7 +12804,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.622074899988079</v>
+        <v>1.599163445037296</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.415156316300144</v>
@@ -12941,7 +12893,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.612626074689381</v>
+        <v>1.5911313991418</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.42126884287351</v>
@@ -13030,7 +12982,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.616873691156407</v>
+        <v>1.599213828760704</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.454068048218188</v>
@@ -13119,7 +13071,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.590900597792514</v>
+        <v>1.583968631593153</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.379781500802615</v>
@@ -13208,7 +13160,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.588140666409953</v>
+        <v>1.584813865490056</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.410054956828007</v>
@@ -13297,7 +13249,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.571741069422154</v>
+        <v>1.569205364726718</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.474967670608597</v>
@@ -13386,7 +13338,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587546509983254</v>
+        <v>1.586460846783077</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.27180852350364</v>
@@ -13475,7 +13427,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.627602988061877</v>
+        <v>1.623475203120142</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.349337040728105</v>
@@ -13761,7 +13713,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.799208111530901</v>
+        <v>1.762576501278203</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.0342356005886</v>
@@ -13850,7 +13802,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.79814584328057</v>
+        <v>1.763134298693589</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.973276611208312</v>
@@ -13939,7 +13891,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.805854134027802</v>
+        <v>1.762641687433476</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.940653291929033</v>
@@ -14028,7 +13980,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.809168627476673</v>
+        <v>1.758108464044263</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.734674651233397</v>
@@ -14117,7 +14069,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.804712528890243</v>
+        <v>1.751738671092724</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.830132951628697</v>
@@ -14206,7 +14158,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.796974112835477</v>
+        <v>1.744207556477545</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.968855343880536</v>
@@ -14295,7 +14247,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.787028164002539</v>
+        <v>1.737234195419612</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.406029046272801</v>
@@ -14384,7 +14336,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.792475868033558</v>
+        <v>1.743768422259399</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.333944441492457</v>
@@ -14473,7 +14425,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.799767474084832</v>
+        <v>1.749798343877228</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.430198797380872</v>
@@ -14562,7 +14514,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.80779654234969</v>
+        <v>1.755087510412447</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.715787554556261</v>
@@ -14651,7 +14603,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.794744171402545</v>
+        <v>1.748934663341144</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.701980622866221</v>
@@ -14740,7 +14692,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.804781252534025</v>
+        <v>1.767732083102435</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.436096259874014</v>
@@ -14829,7 +14781,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.795800368415019</v>
+        <v>1.758669297989957</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.589068679461876</v>
@@ -14918,7 +14870,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.769569112248847</v>
+        <v>1.734686000367407</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.661106692057392</v>
@@ -15007,7 +14959,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.75685243032507</v>
+        <v>1.714105344912523</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.615838633439948</v>
@@ -15096,7 +15048,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.753337824329398</v>
+        <v>1.712966384485315</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.599015670025233</v>
@@ -15185,7 +15137,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.744958935353226</v>
+        <v>1.707968565555109</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.505291726194955</v>
@@ -15274,7 +15226,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.7498207761429</v>
+        <v>1.715951089110783</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.570876707888952</v>
@@ -15363,7 +15315,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.752569745407652</v>
+        <v>1.71834952053581</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.579140887979418</v>
@@ -15452,7 +15404,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.767931725782494</v>
+        <v>1.734717452238271</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.564745385078736</v>
@@ -15541,7 +15493,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.761590136242565</v>
+        <v>1.731282913441483</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.490755515200592</v>
@@ -15630,7 +15582,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.762701546185483</v>
+        <v>1.730535908442416</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.551607982286535</v>
@@ -15719,7 +15671,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.759872675035625</v>
+        <v>1.727767827837435</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.713147241398427</v>
@@ -15808,7 +15760,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.762197163482885</v>
+        <v>1.728434387559903</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.659212091421765</v>
@@ -15897,7 +15849,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.769359740120516</v>
+        <v>1.734023762562406</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.592900041001034</v>
@@ -15986,7 +15938,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.760672542217532</v>
+        <v>1.725643815435435</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.598056191530178</v>
@@ -16075,7 +16027,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.745311270013718</v>
+        <v>1.702282427610462</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.592584152040746</v>
@@ -16164,7 +16116,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.743702431650047</v>
+        <v>1.698786251616663</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.700534364721104</v>
@@ -16253,7 +16205,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.769337551671594</v>
+        <v>1.712137982902445</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.711501146478676</v>
@@ -16342,7 +16294,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.782501766614665</v>
+        <v>1.728523716478148</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.414333282100153</v>
@@ -16431,7 +16383,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.793186989692705</v>
+        <v>1.736693498878862</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.076573250813724</v>
@@ -16520,7 +16472,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.805982574950709</v>
+        <v>1.744936442047871</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.686764929251586</v>
@@ -16609,7 +16561,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.810579603240104</v>
+        <v>1.753145931520813</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.799787289377536</v>
@@ -16698,7 +16650,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.812758407493184</v>
+        <v>1.756215812459591</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.563563784894374</v>
@@ -16787,7 +16739,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.808834599292334</v>
+        <v>1.751614503154902</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.638083547246922</v>
@@ -16876,7 +16828,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.811310287752244</v>
+        <v>1.753864369398463</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.536016891459063</v>
@@ -16965,7 +16917,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.803444539127604</v>
+        <v>1.751097465734386</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.742045184340403</v>
@@ -17054,7 +17006,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.788116886347189</v>
+        <v>1.73769720049287</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.218586634472229</v>
@@ -17143,7 +17095,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.784497140871416</v>
+        <v>1.732089603635071</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.454772497538408</v>
@@ -17232,7 +17184,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.776818171704366</v>
+        <v>1.722988834128675</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.999260501513526</v>
@@ -17321,7 +17273,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.793333885836069</v>
+        <v>1.730206895852114</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.070517487320457</v>
@@ -17410,7 +17362,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.802401091644378</v>
+        <v>1.738502909742851</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.482427316328865</v>
@@ -17499,7 +17451,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.807668993832768</v>
+        <v>1.747093808157967</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.445945111044322</v>
@@ -17588,7 +17540,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.806755715735651</v>
+        <v>1.750411905116997</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.304747372826574</v>
@@ -17677,7 +17629,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.806145249275874</v>
+        <v>1.756108352691784</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.413406946182327</v>
@@ -17766,7 +17718,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.795411450329209</v>
+        <v>1.74886423445262</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.180634550534125</v>
@@ -17855,7 +17807,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.768654677769923</v>
+        <v>1.726922086069541</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.437195171963364</v>
@@ -17944,7 +17896,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.766408091443558</v>
+        <v>1.725753195031916</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.399533901286875</v>
@@ -18033,7 +17985,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.746681769281786</v>
+        <v>1.707512701082023</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.296538552537982</v>
@@ -18122,7 +18074,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.743591555700292</v>
+        <v>1.70240028477741</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.046097645567608</v>
@@ -18211,7 +18163,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.742944275037728</v>
+        <v>1.700190417113286</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.428934002784889</v>
@@ -18497,7 +18449,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.70032776549809</v>
+        <v>1.682169087792441</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.911442001214986</v>
@@ -18586,7 +18538,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.70475225758692</v>
+        <v>1.682650211671484</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.761039892161096</v>
@@ -18675,7 +18627,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.703367919053244</v>
+        <v>1.680725923582594</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.818903825076068</v>
@@ -18764,7 +18716,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.728784323803569</v>
+        <v>1.691186721883164</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.38062058094673</v>
@@ -18853,7 +18805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.765041343055825</v>
+        <v>1.715705632551774</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.193518455497955</v>
@@ -18942,7 +18894,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.779297937443783</v>
+        <v>1.731208635114404</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.328142475339353</v>
@@ -19031,7 +18983,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.787697326673267</v>
+        <v>1.738124824652882</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.518591838874825</v>
@@ -19120,7 +19072,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.786679862748122</v>
+        <v>1.739267107789709</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.656107069967604</v>
@@ -19209,7 +19161,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.783010697297218</v>
+        <v>1.736958598733611</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.682958532557827</v>
@@ -19298,7 +19250,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.79744491729739</v>
+        <v>1.743137991081758</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.390116759354683</v>
@@ -19387,7 +19339,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.79674712387549</v>
+        <v>1.747432299676389</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.376736730285537</v>
@@ -19476,7 +19428,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.774916825407433</v>
+        <v>1.735168996439544</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.076976649937314</v>
@@ -19565,7 +19517,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.73385210412411</v>
+        <v>1.701994265212126</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.83640355297354</v>
@@ -19654,7 +19606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.70931782652917</v>
+        <v>1.681205204005193</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.819050926158907</v>
@@ -19743,7 +19695,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.696527417388928</v>
+        <v>1.665760480903244</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.761757820972043</v>
@@ -19832,7 +19784,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.700842419947874</v>
+        <v>1.669106007264404</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.787391403076825</v>
@@ -19921,7 +19873,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.695251211127124</v>
+        <v>1.667521723064082</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.709100235433134</v>
@@ -20010,7 +19962,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.703582557235318</v>
+        <v>1.674659756663209</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.733019457907579</v>
@@ -20099,7 +20051,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.707990571910234</v>
+        <v>1.684515965563623</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.790383219136596</v>
@@ -20188,7 +20140,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.705119790250557</v>
+        <v>1.682573650103131</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.803107490751359</v>
@@ -20277,7 +20229,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.70472232616202</v>
+        <v>1.688533214957585</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.566684469988241</v>
@@ -20366,7 +20318,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.698022367348448</v>
+        <v>1.682357431819061</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.720091397522276</v>
@@ -20455,7 +20407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.696650953010283</v>
+        <v>1.677872970248292</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.730723447252924</v>
@@ -20544,7 +20496,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.697182632857394</v>
+        <v>1.672420800963068</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.702392090401982</v>
@@ -20633,7 +20585,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.696162316106852</v>
+        <v>1.666686167681916</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.707177642295277</v>
@@ -20722,7 +20674,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.682418298721905</v>
+        <v>1.654788290555931</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.739423308970625</v>
@@ -20811,7 +20763,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.694712050183178</v>
+        <v>1.650089471945086</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.580610052441244</v>
@@ -20900,7 +20852,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.722614308467168</v>
+        <v>1.672832664317184</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.563764500780933</v>
@@ -20989,7 +20941,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.756711889249536</v>
+        <v>1.699529948767328</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.436605139089686</v>
@@ -21078,7 +21030,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.776683238437693</v>
+        <v>1.720598805561079</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.375970193600012</v>
@@ -21167,7 +21119,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.779531844324381</v>
+        <v>1.724641507396707</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.750043727555919</v>
@@ -21256,7 +21208,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.790338043195771</v>
+        <v>1.728009329946814</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.498378558830977</v>
@@ -21345,7 +21297,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.791611490170845</v>
+        <v>1.73096642668458</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.731102074142066</v>
@@ -21434,7 +21386,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.789021135779274</v>
+        <v>1.740828759402984</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.830881825038928</v>
@@ -21523,7 +21475,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.783617265488659</v>
+        <v>1.732040253877231</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.670367660198898</v>
@@ -21612,7 +21564,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.777419265736171</v>
+        <v>1.727323103901502</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.932658600249644</v>
@@ -21701,7 +21653,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.777075703517003</v>
+        <v>1.719529259551148</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.827498954707207</v>
@@ -21790,7 +21742,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.760377564758373</v>
+        <v>1.705969834382825</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.742258801725691</v>
@@ -21879,7 +21831,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.757327266721536</v>
+        <v>1.707604455744889</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.515865407186182</v>
@@ -21968,7 +21920,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.763149387200895</v>
+        <v>1.714594372216337</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.412009434557666</v>
@@ -22057,7 +22009,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.771805741386538</v>
+        <v>1.717202197125234</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.331499439479684</v>
@@ -22146,7 +22098,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.779882085382758</v>
+        <v>1.727499812279083</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.670591287875239</v>
@@ -22235,7 +22187,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.787380460445464</v>
+        <v>1.732400193866388</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.445972208075903</v>
@@ -22324,7 +22276,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.787600981120823</v>
+        <v>1.73442720897556</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.683819249407481</v>
@@ -22413,7 +22365,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.786596597987888</v>
+        <v>1.730712682451742</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.248593555424705</v>
@@ -22502,7 +22454,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.787581353643097</v>
+        <v>1.736926275205112</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.60078190431374</v>
@@ -22591,7 +22543,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.783110564453144</v>
+        <v>1.740984909337143</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.599318912421127</v>
@@ -22680,7 +22632,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.777373166159008</v>
+        <v>1.734510820413871</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.493734466979674</v>
@@ -22769,7 +22721,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.766997466186625</v>
+        <v>1.720826069734399</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.548402481292683</v>
@@ -22858,7 +22810,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.765684557671019</v>
+        <v>1.721786975486969</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.641874006129936</v>
@@ -22947,7 +22899,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.773689105037535</v>
+        <v>1.721298685829743</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.45547909418411</v>
@@ -23233,7 +23185,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.552271977665122</v>
+        <v>1.549617968439904</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.708143240735525</v>
@@ -23322,7 +23274,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.559705656002744</v>
+        <v>1.547174896801546</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.627576484339218</v>
@@ -23411,7 +23363,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.56669869504492</v>
+        <v>1.545199359715523</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.581051926805592</v>
@@ -23500,7 +23452,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.593072556985619</v>
+        <v>1.553383121779011</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.285441460870652</v>
@@ -23589,7 +23541,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.619739264244161</v>
+        <v>1.567307563319818</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.921663002473929</v>
@@ -23678,7 +23630,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.648735632393263</v>
+        <v>1.595284308256852</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.119228220712901</v>
@@ -23767,7 +23719,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669128505173621</v>
+        <v>1.620166416382862</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.986141148631747</v>
@@ -23856,7 +23808,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.686307581641474</v>
+        <v>1.633133497481362</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.977786893331082</v>
@@ -23945,7 +23897,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700594711334002</v>
+        <v>1.641768016040137</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.906452102694987</v>
@@ -24034,7 +23986,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.710575428543851</v>
+        <v>1.65081111073233</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.932844746848255</v>
@@ -24123,7 +24075,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.700689561969211</v>
+        <v>1.655858729821484</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.993693783589455</v>
@@ -24212,7 +24164,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.693219190930337</v>
+        <v>1.648880390459183</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.909063021858059</v>
@@ -24301,7 +24253,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.653779656022541</v>
+        <v>1.617014364318758</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.08888146669611</v>
@@ -24390,7 +24342,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.609815078953154</v>
+        <v>1.577212651862732</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.758522365894853</v>
@@ -24479,7 +24431,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580650664630284</v>
+        <v>1.558729586652477</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.648236086895654</v>
@@ -24568,7 +24520,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.579718752586369</v>
+        <v>1.558412007878667</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.68405607536928</v>
@@ -24657,7 +24609,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.564215593295453</v>
+        <v>1.555137935047773</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.578870780240357</v>
@@ -24746,7 +24698,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.575574830289489</v>
+        <v>1.57030504230999</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.599075417596572</v>
@@ -24835,7 +24787,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.585317523761875</v>
+        <v>1.582891124548456</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.602715589051643</v>
@@ -24924,7 +24876,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.59581406162633</v>
+        <v>1.593244403279529</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.637962699765259</v>
@@ -25013,7 +24965,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.571608414605923</v>
+        <v>1.56444875883117</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.573889641718837</v>
@@ -25102,7 +25054,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.559264361644238</v>
+        <v>1.545140919947099</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.539256957841629</v>
@@ -25191,7 +25143,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.554240968769967</v>
+        <v>1.544158572798843</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.466208519334874</v>
@@ -25280,7 +25232,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.553877559171103</v>
+        <v>1.542814097097784</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.540411971701392</v>
@@ -25369,7 +25321,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.561827907402554</v>
+        <v>1.546597185635338</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.495800895950146</v>
@@ -25458,7 +25410,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.546811344269964</v>
+        <v>1.528787797427389</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.524582658240271</v>
@@ -25547,7 +25499,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.543336689344645</v>
+        <v>1.51766508828167</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.379271825449719</v>
@@ -25636,7 +25588,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56697024517152</v>
+        <v>1.538535565078995</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.298825501576669</v>
@@ -25725,7 +25677,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.609238854864677</v>
+        <v>1.562139938311391</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.152927677329025</v>
@@ -25814,7 +25766,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.650461225624687</v>
+        <v>1.587554663847918</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.15678704105478</v>
@@ -25903,7 +25855,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.661665604345173</v>
+        <v>1.60153979240677</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.590782547535472</v>
@@ -25992,7 +25944,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.693525077769975</v>
+        <v>1.624851817242772</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.178715443490239</v>
@@ -26081,7 +26033,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.697344290451967</v>
+        <v>1.632911091526198</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.190440340634209</v>
@@ -26170,7 +26122,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.691921538437022</v>
+        <v>1.633551549722563</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.070462369948043</v>
@@ -26259,7 +26211,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.678655975544592</v>
+        <v>1.619823738090854</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.064887918774117</v>
@@ -26348,7 +26300,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.668269337713676</v>
+        <v>1.610082406042314</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.13737817562107</v>
@@ -26437,7 +26389,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.65632250159179</v>
+        <v>1.60606664915463</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.151757057879985</v>
@@ -26526,7 +26478,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.641046661866292</v>
+        <v>1.592515989329112</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.254416987765082</v>
@@ -26615,7 +26567,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.636939893187443</v>
+        <v>1.589886603977284</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.092330756181155</v>
@@ -26704,7 +26656,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.641063945854508</v>
+        <v>1.592129243927201</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.111960716174841</v>
@@ -26793,7 +26745,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.663053847109579</v>
+        <v>1.603379467887744</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.786061031395032</v>
@@ -26882,7 +26834,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.672948510221832</v>
+        <v>1.619174663820677</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.216276825594387</v>
@@ -26971,7 +26923,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.68453724338372</v>
+        <v>1.630045599589665</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.145081311776476</v>
@@ -27060,7 +27012,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.699652429603613</v>
+        <v>1.652784773554364</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.154935983258728</v>
@@ -27149,7 +27101,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.689926137041686</v>
+        <v>1.651756154792512</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.046697820414888</v>
@@ -27238,7 +27190,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.687131984177518</v>
+        <v>1.649770714153364</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.195302541673586</v>
@@ -27327,7 +27279,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.653929489337862</v>
+        <v>1.624934660798315</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.893271931355781</v>
@@ -27416,7 +27368,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.642712958664802</v>
+        <v>1.612881571985662</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.887059435606345</v>
@@ -27505,7 +27457,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.616774235506906</v>
+        <v>1.588831625775303</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.846200506738755</v>
@@ -27594,7 +27546,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.622473770516351</v>
+        <v>1.59500696982781</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.477342889786432</v>
@@ -27683,7 +27635,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.637883457312923</v>
+        <v>1.614676507114545</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.714060485292474</v>
@@ -27969,7 +27921,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.535200503935253</v>
+        <v>1.52882747254645</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.602599639448364</v>
@@ -28058,7 +28010,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.567009898769543</v>
+        <v>1.555214011563356</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.648077304624183</v>
@@ -28147,7 +28099,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.5899717930135</v>
+        <v>1.572612491484829</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.677006240489135</v>
@@ -28236,7 +28188,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.619414461539552</v>
+        <v>1.592786013888781</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.486947886140963</v>
@@ -28325,7 +28277,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.623045482844177</v>
+        <v>1.595628733611891</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.829113936518675</v>
@@ -28414,7 +28366,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.608709878473609</v>
+        <v>1.593862496294851</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.707012818182513</v>
@@ -28503,7 +28455,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.613117669324751</v>
+        <v>1.603622606529659</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.648844690503803</v>
@@ -28592,7 +28544,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.620196568083413</v>
+        <v>1.60960713694539</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.748930825817418</v>
@@ -28681,7 +28633,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.644008690416207</v>
+        <v>1.630251666884266</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.524557337969827</v>
@@ -28770,7 +28722,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.651528369613835</v>
+        <v>1.632179304295473</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.550839668358326</v>
@@ -28859,7 +28811,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.641354207185615</v>
+        <v>1.627152378603761</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.400268284542348</v>
@@ -28948,7 +28900,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.634430412934806</v>
+        <v>1.634030500611087</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.196978146565055</v>
@@ -29037,7 +28989,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.60166665321842</v>
+        <v>1.604117310364529</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.359911961007507</v>
@@ -29126,7 +29078,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.543515532807024</v>
+        <v>1.554136235995776</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.363038798233689</v>
@@ -29215,7 +29167,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.515690820546758</v>
+        <v>1.531880108210528</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.264680504570692</v>
@@ -29304,7 +29256,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.512447172001052</v>
+        <v>1.528491832329977</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.237709481688829</v>
@@ -29393,7 +29345,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.510206358837897</v>
+        <v>1.525816433618007</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.231261904219547</v>
@@ -29482,7 +29434,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5090849061624</v>
+        <v>1.527384050667387</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.253928850550063</v>
@@ -29571,7 +29523,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.510209408040776</v>
+        <v>1.532828677741946</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.243797506283423</v>
@@ -29660,7 +29612,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.527740137098432</v>
+        <v>1.549349498041961</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.241399072967977</v>
@@ -29749,7 +29701,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.52656132817614</v>
+        <v>1.546615132642412</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.21039665791378</v>
@@ -29838,7 +29790,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.527976570515903</v>
+        <v>1.548778891244586</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.216887201887444</v>
@@ -29927,7 +29879,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.526195819186715</v>
+        <v>1.54834764423353</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.186452125987306</v>
@@ -30016,7 +29968,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.523323543349331</v>
+        <v>1.54381185945585</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.228597850575694</v>
@@ -30105,7 +30057,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.543033631885903</v>
+        <v>1.562543875484311</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.166571547023573</v>
@@ -30194,7 +30146,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.548997165364482</v>
+        <v>1.564976746936689</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.2864522955616</v>
@@ -30283,7 +30235,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.55159889703049</v>
+        <v>1.564894564332592</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.256522652987397</v>
@@ -30372,7 +30324,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.61270984967185</v>
+        <v>1.615787622686435</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.049319996846637</v>
@@ -30461,7 +30413,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.687268209878238</v>
+        <v>1.676974964904699</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.900820296488638</v>
@@ -30550,7 +30502,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.748802414045387</v>
+        <v>1.739579659273321</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.415675956573496</v>
@@ -30639,7 +30591,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.76299721506679</v>
+        <v>1.75222866575864</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.525348863424984</v>
@@ -30728,7 +30680,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.776677323442272</v>
+        <v>1.765679234164326</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.701312994651226</v>
@@ -30817,7 +30769,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.780444083766221</v>
+        <v>1.772398775443555</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.537742043597238</v>
@@ -30906,7 +30858,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.784436728657004</v>
+        <v>1.778934964360779</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.560735800320524</v>
@@ -30995,7 +30947,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.765604604695246</v>
+        <v>1.754501790978479</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.670135878146346</v>
@@ -31084,7 +31036,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.73113842752427</v>
+        <v>1.731499231362457</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.572302139873599</v>
@@ -31173,7 +31125,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.725579113680178</v>
+        <v>1.722012624791342</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.638966348129484</v>
@@ -31262,7 +31214,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.63040443594753</v>
+        <v>1.635875956143845</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.422966396207793</v>
@@ -31351,7 +31303,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.611695848642081</v>
+        <v>1.616251928053324</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.434697455737046</v>
@@ -31440,7 +31392,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.609447041197342</v>
+        <v>1.614801821695288</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.42584394603464</v>
@@ -31529,7 +31481,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.623997563006186</v>
+        <v>1.627277063627486</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.156858229180799</v>
@@ -31618,7 +31570,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.643151190170883</v>
+        <v>1.642757647336842</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.402871999527843</v>
@@ -31707,7 +31659,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.650507699044965</v>
+        <v>1.647856093257644</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.335770575127348</v>
@@ -31796,7 +31748,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.643809497343953</v>
+        <v>1.638697671148732</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.372952835017433</v>
@@ -31885,7 +31837,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629210207153132</v>
+        <v>1.62487114840159</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.389554849881908</v>
@@ -31974,7 +31926,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618656316276906</v>
+        <v>1.614920834525952</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.319293349125255</v>
@@ -32063,7 +32015,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.608421243216576</v>
+        <v>1.607118958031822</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.325011804825828</v>
@@ -32152,7 +32104,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.609295568429081</v>
+        <v>1.609807308498336</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.266246638991297</v>
@@ -32241,7 +32193,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.603721147008945</v>
+        <v>1.602138051404541</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.302244459888378</v>
@@ -32330,7 +32282,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.61685518877539</v>
+        <v>1.610120731696461</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.197251050193584</v>
@@ -32419,7 +32371,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.63223296828872</v>
+        <v>1.626517802943289</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.287562291362869</v>
